--- a/data/total_death_by_continent.xlsx
+++ b/data/total_death_by_continent.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\covid_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\covid_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB74E84-6615-48C0-AB3E-D89083B4C20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F106F685-2C29-4E30-83BD-B4BAAD443F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6EE7F653-E2F7-4EC0-AB86-D025C3223686}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Europe</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>total_death_count</t>
+  </si>
+  <si>
+    <t>Oceania</t>
   </si>
 </sst>
 </file>
@@ -407,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0391334-C53F-4048-A9A5-5483771C28EA}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,6 +466,14 @@
         <v>252892</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>11020</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
